--- a/test2.xlsx
+++ b/test2.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="540">
   <si>
     <t>Date</t>
   </si>
@@ -66,7 +66,7 @@
     <t>HDLO+6gqDKL6E1jY/yWe9Hplo2WEmku01/xcGjkY9NVTEr68XT2ZpqZF91a1D9JbnKkJg1UuljvPQDEfKRYAitM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/15DKpZDn7D_j4jxN9OxjwEUZg8sh4QjmX/view</t>
+    <t>https://drive.google.com/file/d//view</t>
   </si>
   <si>
     <t>10.05.2016</t>
@@ -87,9 +87,6 @@
     <t>HL/S5ow1QPozfKwI1cDRfp+h8sLtxXuxGlTDhhX9Rk8OYiSML1LOd3RwysGcf0ZTK3oLyrYpOiW7SgN6uB2ZYGE=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1emuFEWOYSqNf64l907PMMkwuzGIkhxqO/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Нестеров Максим</t>
   </si>
   <si>
@@ -102,9 +99,6 @@
     <t>HLC5z4t8xC2YGKI5mLBpvDsQ3DOM3PbbILeTlOKwjBm4K0esTGfEknzQuCJ2yEB6ovYnuMtL+MmBHQck4r/Og7Q=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1L_j9H8kqUKt_3F8tnv3nsmkGQqsPjthd/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alexey Shendrick</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>G68tQOmxtEYSkwR0sAY0ML8dBFo2Wi5mIbiy/fK07in9KXs9kunnFY/GlAbA/kda8OlqjC0Lk97BBUjUuPnTpHk=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1FxjliSYDJ-fYMohZLqekbMD57k005i9l/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anastasia Sapozhkova</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>HK6wLdEeplEYXJCkmuaJlVdEHn86MGUCs4DDpbEd93LNV2ZF6etTLCUq6k5abJlgfDVKnjx9yOW4QN5HVbwJDj4=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1kGwnculiksKXzDLnWft5TpAXNX-H6L4m/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Den Galkin</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
     <t>GzNRug/B6l+rL3to9AZ/VXpmusTsWvucAR9DOc2FTvxrM93KfyaXy/tA1JNI2m3n6U6h0HTVd5LDJ42ktB0U0wI=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1MUid1MZPe4MiGisARJcny6v-FniauUJ1/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daniyil Yakovlev</t>
   </si>
   <si>
@@ -162,9 +147,6 @@
     <t>G/OqvWSw7yJjGNtQrDOgmqM+KDGFPtg2ik0kjJI3j4VcUnwk8Er+CGUs7gv6f0fzp9aYI8HWFOe1JYwKeX4iB9o=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1lPW6vbc6xr9xjsN2aqujn5A78yIkRwH4/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Алексей Демидов</t>
   </si>
   <si>
@@ -177,9 +159,6 @@
     <t>HFwp//oNPDU4M9oHCqEUpLHoBO+T79UoW0yCBU00B7CAaH3b/yUVFO8KZd020njZS2MqV8d4gU92CV7PwMy3l6Q=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1bker5Jpn_lmqrTix1Pj_iwtuVGbN8DuE/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Анатолий Дедов</t>
   </si>
   <si>
@@ -192,9 +171,6 @@
     <t>G1pZdlCrJdkeNY36bRW+19+z8QM+FB5hoRGkvwdbEQkzYjL8dY0VCVAEzrHmA0RjSxDq8sPPcBb0z7gDyiSNUMQ=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/10w-P5IAZjJuZYQVQL5TvwwLe6RnJGfsD/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Денис Руденко</t>
   </si>
   <si>
@@ -207,9 +183,6 @@
     <t>HOuQkxXy/PqMOZJFmEUoMQk95GdnTEdDxzlbCmyKlOZmDvKXPg/DKRRZ4kEEvI30D+swVXxp4x8eKy1TYChtps8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1E-iug5o8-Pp_Yk6R9aaqstX3zt7TQytZ/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Illia Fariatiev</t>
   </si>
   <si>
@@ -222,9 +195,6 @@
     <t>G1RRBhBcOU6M8nvMrq1O5P7aq2wiUecvqkXw/SoQk+GOLYc0oML5nQiOMrDAiM90Q67nNRLBMjlL8RfqtQngLZ8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1wlJ_6CWCBDHlrWb0wkoUcxdF3A_sJamq/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Костюк Александр</t>
   </si>
   <si>
@@ -237,9 +207,6 @@
     <t>G6l/nUfobqeYO+SaS/PyhLMSJWjouG2QrzL8m9JyLZPmdXpYmDUXWPL30/Vaz60KIPhLXWqj6JP2YoqtYXmpn9k=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1cY6dQONhHagrcqgWH_wS9iP2KoOO25uD/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Марина Боровая</t>
   </si>
   <si>
@@ -252,9 +219,6 @@
     <t>G3CfLZYX4HzXNNASC36O1805sLJKVdL2UWzcwOt1+J+mZwe+2/x49eTPU3e2hdytEDtjniiqAqXtnUEL+7EEyVM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Fwuuth3y4jZlm6c9yilN1O_Tyk7WHOWx/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Мордвинов Роман Игоревич</t>
   </si>
   <si>
@@ -267,9 +231,6 @@
     <t>G3+B366TAXptnN3HvQySms9KyzVyfDsYIXw3O8Lw3Q6DdbZU0hTkIcnc0CTYsgjyxaTjGqf+1uDrdEWWYpXgpc4=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/11gTG2D-E_1HfAs3V5y3zqqw48rUqArcu/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Сергей Романько</t>
   </si>
   <si>
@@ -282,9 +243,6 @@
     <t>G4Jpj2CKvbUWopbxx+r1S4P4a00i1vVFiWxaDaid3qXMd+O3iUkAcnZLIXUHDkeeObPXvwnDyWfVdP81UEiVhN8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1HVtWxhIqKtViCue5UtC8iejkH-4cmRhO/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Синельников Александр</t>
   </si>
   <si>
@@ -297,9 +255,6 @@
     <t>G5UswIvpVEAXG7zWhMchCB6uvXSRacPk9rNvBDGtXpCjMRkXkOvyNsz3nz5I+OHrYByOypWdRVomNhRH7wBxt98=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1w7h84lrP0YzjPL28UhsRFoo8gqVH3OT6/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Скрипник Александр</t>
   </si>
   <si>
@@ -312,9 +267,6 @@
     <t>G4JMoj4xVjoSztKT0vJkm89W+TB3IA5K/94xv0+kLibqblxl3tfwpnqbdoeMFikP+MhqLYT3ik6COvUNbPj0iVk=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1qGoWio8yakMoEIupPvH6ZkRRCL-e8V1Y/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Солонский Александр</t>
   </si>
   <si>
@@ -327,9 +279,6 @@
     <t>HJl2ppwA2A8OAdeoTUQgSeFpehYnbukxEkKsCk8a9B4cA67t4VuZQFywBceNl4+PyteA/KbcDlSe0tpcE0uy6KE=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1EJP9ptSPJHo_UhpBUHbNKU6x-z90lEWv/view</t>
-  </si>
-  <si>
     <t>31.10.2016</t>
   </si>
   <si>
@@ -345,9 +294,6 @@
     <t>HNTazPdprjLP4Yf9ZgRIBFtjR6r25k2krvvvcDmOBhT6JfM8SxjU+De2Q5fzGm4VHpNMegOp06EnNohbpzpEMI4=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1mJWPv17RbG-AA05igPZM__S16pWhkRor/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oleksiy Ponomorev</t>
   </si>
   <si>
@@ -360,9 +306,6 @@
     <t>HJvFHdX5AJ/12PGL/ZqPsFvR5l1juzABjhdh9F/yKmyGNvsaHRsfmbR3HN3J1aLMHgGgTWiTuTKqMogk34LhS8g=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ORbau7v_ep3KVZHmYU83I25KoZLuowoo/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pavel Brilliant</t>
   </si>
   <si>
@@ -375,9 +318,6 @@
     <t>G0QqHpt8SIjtEhZqu8ZwIdhaXdZLvLGNQMQTrINPsoNmdYf0Yp9854j+mcSOrLJh/dpq6aGZergC2+OcIJmIy5I=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1z_slwbXDxJZd8tmKMVE4s6oNYLZTyyPd/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Volodymyr Kavetskyy</t>
   </si>
   <si>
@@ -390,9 +330,6 @@
     <t>HNthdNWPwGmVn+cxNWfoRfScs/fEnlCP9frX7t9Nc9waZeEkM3q1HPejLpswg7Zgr9y6nAgNqt4tQ5FnVGqczlc=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ri-ZZG3O9S2edtE8rvgF-LgRR6QXIlm3/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vladyslav Minakov</t>
   </si>
   <si>
@@ -405,9 +342,6 @@
     <t>G8QdtgHByifGkRpvkwoyqyHYBnvngvqGpsE0+OYg0l4/alH5hKrukluT0vymRI89FuPQaP5NZXhJw5qBqr/o2SQ=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ov-Oqwpx6Gy8KpOVI2hayD7nUNumZMM9/view</t>
-  </si>
-  <si>
     <t>03.03.2017</t>
   </si>
   <si>
@@ -423,9 +357,6 @@
     <t>HA2ozpf6FmCR9/D/F1XgLiiwPlUjJLoag15bW5+L4fQHD0Fzs7c7/2KGC/bsQG8Qb9PP7XBe0ZLiDxxYN1sfvlc=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ecjmw-7iaw5ngFxbWsyrE5SBYEhCZOkE/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kolhatin Andrii</t>
   </si>
   <si>
@@ -438,9 +369,6 @@
     <t>HOcOQLZi/0Hj7wI2HfEnZo9/I0BIcJlvSIj0kM1p52IeZu906yz7HH82BuKoZn4vsU1NaeozhmLhrvaLuFl4axo=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1n1pk_b4aUzwFlB1i5xwZtF0NAQA0cBlF/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Heorhii Kholodov</t>
   </si>
   <si>
@@ -453,9 +381,6 @@
     <t>G9GctEnd76pKgGDyI7+aE9V09Cbs9aumDPiqIQigvacdBmKIzpoQDCwHI7E+a/k9BOzv+g7d0xz+Gge0BLfJFfQ=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1BGp59foRFaj8edi6Hsl_WuErb9fPUS1Y/view</t>
-  </si>
-  <si>
     <t>30.05.2018</t>
   </si>
   <si>
@@ -474,9 +399,6 @@
     <t>G+TKDQRHr+0M88vwYCpAR1HxlsZ9Z7wGKXvhaOHBU8VVVsZ6D827dqlCB+/VqOuSoiNUl2Q4njEuMlyVU8acWg0=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1SQKKlF27W9EOzxkbUX5FrOvW1ZyDV_eQ/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aleksandr Kurbatov</t>
   </si>
   <si>
@@ -489,9 +411,6 @@
     <t>HEGH5/OOhT4reguIiiTH6APFTbnlV5C1KUyZ1pDo2cj6OGuhq/LbQm/JPTRM/O7tZRuIRfzN9JFsrrjCWCFPlk4=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1f1uYN-xBYrjk_6HMFBt504HVaMKWDt37/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aleksandr Ivanov</t>
   </si>
   <si>
@@ -504,9 +423,6 @@
     <t>G3ZO9bxTgtB/7Fa9EI72atZVXvh2Ad/AFoyzzevZ8ZobO83vZr+y2kqGwnGR6W3RrWH6kTuo4FsGrD74ILRPfEY=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ERwUJ3pDH_CYgxlJ4RBRFZtSzF21jkir/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Artyom Ahmetzyanov</t>
   </si>
   <si>
@@ -519,9 +435,6 @@
     <t>G6PuaRb177RpKrDmAjukXeT/Pov30l8TdCMgBJErT1YwH6DqSeI9ff2Z+uuJmeqveGXDYUhbYEhDxKg1jEaOK3E=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1F5OBNS3XoTgKueMGjqsxrqyONAnFxO4z/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oleksii Khramov</t>
   </si>
   <si>
@@ -534,9 +447,6 @@
     <t>HBlAzPzVISCrhkXzo8GZ6W8Z84V6yqNwfy72EfWfgfhWCfoC3kzzdLh2hOyRRt8A/hleQIggp11lEkfjiBwU3FI=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1jTcX5TAAhcbbc8tH6ORHuKQJH2JquwMy/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nodar Alyoshin</t>
   </si>
   <si>
@@ -549,9 +459,6 @@
     <t>HAt2BcTILIRTPMZAwC+3r/wauy6mFamx0lLEvPl8T8u8X9L6TNJ2cd8B6X1E3f2E4izbyj19WA5Tr9VyW1AY1Qg=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1rUi1GV143B2-kXdqxddXv6Ly-qche6LB/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marina Osadchuk</t>
   </si>
   <si>
@@ -564,9 +471,6 @@
     <t>G+SXoVDF+C1xZEypC8G1DkMNZU2K/YTniKoPmEOKvao7SAs1KY2p8RFoJlol9Hi5x+ZnLMocF64cXyB82fj4/co=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1weZRu6h5-wwQb5vCgYVqEzm5_A_mFo3y/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Konstantin Nechvolod</t>
   </si>
   <si>
@@ -579,9 +483,6 @@
     <t>HONq+40rWWcZg2ep51dVOeDlcPxRzZyoFaRcEx/kXFVcKkNrgAJWpl5iTfkoY7ClsA9dM+gU0ZZIXMolgSNmuIE=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1H4Ugj-AvUHyJdd1ngymmj-KwKB9K8MK6/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ilya Svetaylo</t>
   </si>
   <si>
@@ -594,9 +495,6 @@
     <t>HKkfJL99tKlg2eavVbzwdMxgOf61qj23+C38oRfT9S7yAurKw4uk38Arvj54gJ4diOc7XAAJJWI5WZpjkH+GVD4=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1sUlRxLbPQBwinN5qSKU4PeU5VMnCdzwT/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dmytro Mandych</t>
   </si>
   <si>
@@ -609,9 +507,6 @@
     <t>GxJO7BiH7QSDOkaVyvoSs5I1l55gYnvxDt/EcTkBYowbQfUWr79pfg8SvoSGPtFFIAT16R5D3C2UWedyHqjSaq8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1XSXblcBg_CgwZhqoUa3AXUkYwmhRWJWZ/view</t>
-  </si>
-  <si>
     <t>26.05.2020</t>
   </si>
   <si>
@@ -630,9 +525,6 @@
     <t>HBzaIo/6pGkl+lxuK93TpLDR3J0fQnJuLF/UvSWu/DnCBGypnDxHHN+9YQPv6mCzEqy4c4ztULeBbX6umqneJbM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/17TgOQ99-oOKOVwVxZeihc4Wkjqxw4qtz/view</t>
-  </si>
-  <si>
     <t>28.05.2020</t>
   </si>
   <si>
@@ -648,9 +540,6 @@
     <t>HJg/1FFp+OhLbPPswjILag3FY2WMU4+XcI04Ns6LB9wmLexAfWDQnRgiXTtjkmQihRemlxaeqR6ftVepPZNrHBo=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1JD0Wy9808SP6m6sLRdCJqY0Lma9wtXcr/view</t>
-  </si>
-  <si>
     <t>30.05.2020</t>
   </si>
   <si>
@@ -666,9 +555,6 @@
     <t>HJncl4kaqw9zTObNyjKooaqcPCdEuHz5xHFvcd3MX5F8HVTSPlpFPcHe/I4J51+VrDAssyv3ithaKinCMpRryqA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1eGH5LOBejCcrVunddooKn6xgtf5B5l2x/view</t>
-  </si>
-  <si>
     <t>03.06.2020</t>
   </si>
   <si>
@@ -684,9 +570,6 @@
     <t>Gzw/HIBgJ7KVFS7QmDgYWxq8XjKW4lAILc3sROoFzfxqWvK4tYRyGDb0ZvJKQe3xHaFC2CUeutLZSOTbfTa0QV0=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1dkIuSyliKxYB8RB_VXQFlyKfRq6doD13/view</t>
-  </si>
-  <si>
     <t>21.08.2020</t>
   </si>
   <si>
@@ -702,9 +585,6 @@
     <t>HP41UyoLCOMLuOEIo42MuFafQWcp0t4i6LBAgNz75cNPYOBdXopZM+It2/Be2dr0ienxZVjSb3zJztSjlaD54l0=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ctSwgXv2v769DPz5v5EceS_79c0gFoEs/view</t>
-  </si>
-  <si>
     <t>15.09.2020</t>
   </si>
   <si>
@@ -720,9 +600,6 @@
     <t>HCzXH2Zbj4gbKDjETOQGCWS+XxeEZZMPOew3MUhUr0HhWixJ7eLggTl7cydDoD6sMmgIYDMN5sRHQ+XJ/Fvvb3Q=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1xL5L2xdU5ViLgatCyIU91zJA5TZwXk-t/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nikolay Scherbakov</t>
   </si>
   <si>
@@ -735,9 +612,6 @@
     <t>HJJvBuSIMkoiAO+sC8QBznqFcgY8LSD1Gw6CvtwJSVJLYoihwr5NrQvIzV7l2SoU5cbCU+FRL/3euoLPhxfQyYM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1rGlLJRIoLzojkNE5zlShTID7snnFiTk1/view</t>
-  </si>
-  <si>
     <t>16.09.2020</t>
   </si>
   <si>
@@ -753,9 +627,6 @@
     <t>G4fHhUf678fe0keVwns3h0B7eDLW0jQOMkxJVRg9DwgKNOIjAgksa+fZ5mJ9Ojst1bHp2zGQfgVdtVILW+ZLpzY=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19EQwXE35O9TZFoxUUv7QZ9Cswz0Gca3d/view</t>
-  </si>
-  <si>
     <t>17.09.2020</t>
   </si>
   <si>
@@ -771,9 +642,6 @@
     <t>HJvnMx8PPHp3/yBmcUPMH2FdjkOgbClzrn20BArlYjAnHxJJGArQJBD8smNoDbg1RsQNwFIkn+lLuOShvvcLCPY=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/16YZ2ixfZuOpmohLnk0GlRzsET0fPrS7c/view</t>
-  </si>
-  <si>
     <t>12.29.2021</t>
   </si>
   <si>
@@ -792,9 +660,6 @@
     <t>G3gYwhzI5+ZXB2kDCeqmw7ZIyAfM2VyNCo7rqfK6oErwXzOgVWTXTB2Y0nQTEsPVbu21i0aXTcjj1/cRs4q1Eh8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1D6eW76y04PdArRCfS7Z002nBFYzA7Eaq/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yatskiv Vasyl</t>
   </si>
   <si>
@@ -807,9 +672,6 @@
     <t>HK7waE27kA6KJwApBM+T4LAk4aZqaE9IPDkBCxSy2kIEIufgsqcxvQ2rz19wEhtVeFadLyIdaeqHRdUIesIFeEY=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1AFfJfWcVmc6qOp1ElebL_fK2zZMDACKF/view</t>
-  </si>
-  <si>
     <t>24.05.2022</t>
   </si>
   <si>
@@ -825,9 +687,6 @@
     <t>HA5BwNFM/ySsemkCY6OpyYzGN2ynKMEaM8GLSihU2F8fIafDwOkoIh2PLwj1IdJ/pBYdBTic+Uho+017ECKjRNw=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1fokzseZ5wVZ0FZ4NnIY6fRRLcQEpn90k/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Artem Lytvynov</t>
   </si>
   <si>
@@ -840,9 +699,6 @@
     <t>Gyyl8SW1Vhxv2Y9izEr5P1xTWFuhrsh50Oxsq0ivOCIGYnrgsSq0dVAL7d/fHlQr4HKC5tRuFWRMg3E275kdLJs=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1DJh2BRoC8JAfXJgLbPLcfldto87MRutc/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Taras Horun</t>
   </si>
   <si>
@@ -855,9 +711,6 @@
     <t>HMm+QmgYSQqzfj+FdgRl1rWBCdL1S4zMjHo4rOlH25QqahXol4u5iYWlYHpMzEhlIt7GEVY6GQdrSoKBmssw+wE=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1VkoAVQXixnP6YTHehJfMIpRey6eie_YG/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anastasiia Slota</t>
   </si>
   <si>
@@ -870,9 +723,6 @@
     <t>HHSTW6baeeBbUdAqBUVAabWN7FyZcmoGl0a2yh2qMvM/NuSSlL5WIC4i/X4xl4ENs/MIKGxn/Yx4AQEZ3Xlfo/I=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1IRo-dfis7g8NdQdGHp9Q51Q2PlaSNZPx/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yuriy Melnychuk</t>
   </si>
   <si>
@@ -885,9 +735,6 @@
     <t>HLFj51cOIDt1qrqje2PXKxrtUxp1hjlrNJxyE2uD8TbiO2UKvbAI+WmR/rmJ3zP1nURKyFD3zP7orsfABAqigkg=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Ajvx96wGHqrWMu2CG1mf3z-QEwBIGOI_/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vladyslav Mazur</t>
   </si>
   <si>
@@ -900,9 +747,6 @@
     <t>HLRD02/6NJ7khwmd96Pm2n54FdjUOODqTq0B65DPCuq8DMRfhgsgzJhWRLUNGmka6qsOAlRYHVYcaFdURPX1T8I=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/15dWMNpEl_S4HefmVqGAr_XTZecpPYNnW/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hanna Zhurba</t>
   </si>
   <si>
@@ -915,9 +759,6 @@
     <t>G23T8nDlJs73D0lrECwkUe+mXYAtGdG9qjpSpWrU32pvXnfTe3DSqjCTi6rJFVs1Yzi2Fv3xylxp5MMR8p8VeRw=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1NpjVDCm6vswVREL9rlqcF9Z3AMFTHEjt/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Viktoriia Holoshchapova</t>
   </si>
   <si>
@@ -930,12 +771,6 @@
     <t>HNXgySG2kQ3jao+mFMaN3wfZFjEh5tNOLS3typW1XLu/AWlnZ9Wp8fZzONuZuA7Ld2EjAXGRflxYjsG/zZvNK1Y=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/18DEZNBTai2uxTZf9lFaDa3hvQADSKZ8l/view</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1KuhHK25pR1v85pIPSoquEwbmitbmBdSU/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nikita Liashko</t>
   </si>
   <si>
@@ -948,9 +783,6 @@
     <t>HOt76U1Fm6QnHoInt0Smt+gAS3rWPhQyfPREvrRvrghaKyti2vcVHkLzN6+M0BSZWjdpmAEmApjrFE22eEaMtqg=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ckGZEm3WJIE2n9iH8cDxJUGGNM8B2YiT/view</t>
-  </si>
-  <si>
     <t>27.05.2022</t>
   </si>
   <si>
@@ -966,9 +798,6 @@
     <t>HLH7WlOVLpwlLCX6S4IVdvTOunTc3QM9kpmouZBN7E+Lcd9pgsIPENfPEXdPoEc8HS/RGRqYc2669yxmo7TTYJI=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1fCOa7Y1bOpwL0lTFL8MoluPq6rUz9dp5/view</t>
-  </si>
-  <si>
     <t>30.05.2022</t>
   </si>
   <si>
@@ -984,9 +813,6 @@
     <t>G5FFAmf/zMSc5uhA4w2of3MlPRCOl/nrSQ+EHORntQdSYge5OoFzcoywcRu+c8Al2Wn0vDT2gplOysnc9bkVKuU=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1POk1_zl1pFyh03WzQ6Bv4w_T6Gv9xMj0/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ruslan Ovsiienko</t>
   </si>
   <si>
@@ -999,9 +825,6 @@
     <t>G3EE53pUm5VlTsbXpOwdRM63L+AGzsNrlmlAgBysqeKrQYUARmf1tqGI0uNbrYxulKqr9rUu9h6dgFSgLPwOlGo=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1N9DXhZFeSUUYqEJkfFD0GCWL3bdx4Hzp/view</t>
-  </si>
-  <si>
     <t>31.05.2022</t>
   </si>
   <si>
@@ -1017,9 +840,6 @@
     <t>HPxkFc6eqX1zkacNhXG+sBNXjVxyuH1KHnrh6B9b6e9zKf6E3ZsKgi7KviRGqMsROOkCltpUiNYA5H0saLu0V90=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Iabyuy0EMegqxBnexqrg3S2xWItxr-R0/view</t>
-  </si>
-  <si>
     <t>02.06.2022</t>
   </si>
   <si>
@@ -1035,9 +855,6 @@
     <t>HKh9/uLqPvIlWlda72xmPBh4gWJPa1GmeUiFqmMUsnO2QBuonHk6hSItvca+oWB7KVakP8zuuiZy5E/0gh/gju8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/10mBMQPmIbnFfq7UCfryN2gUGDufwU02A/view</t>
-  </si>
-  <si>
     <t>03.06.2022</t>
   </si>
   <si>
@@ -1053,9 +870,6 @@
     <t>HNdZVHjhVExW+1Z4mN+Te9JfpSvd+YECTCgTdd9IJBnwfWKI4PH8xfVPvJr/RXDfqT+IXb/PUqhIJIfPeJabSSw=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1BSuJTy_Dtd9ktcN9GDjlEPouvglkAW0a/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Anton Balykov</t>
   </si>
   <si>
@@ -1068,9 +882,6 @@
     <t>HAcsbhV60MNVfxYYDPk95TsJ8K0vzClCraIHX3jcMxTUYWejpT1skkLDABMaWybvl4vDwSwhutHvP3VeuSN3hqQ=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1dfnHc1Mjxg-CRmDCM6dAytuvhye9k04s/view</t>
-  </si>
-  <si>
     <t>06.06.2022</t>
   </si>
   <si>
@@ -1086,9 +897,6 @@
     <t>G1SiRU5KQYfkC7uOSmRY/P2fj1w6YEu683um5h9a6ws8dlGMOSqTHYb8K/dSVioO+bMlb07pm5VcF6kewoJVWDQ=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1FUuGvnJDde0Rq_2vqCu2rbp5EczOqAQ7/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Denis Riabtsev</t>
   </si>
   <si>
@@ -1101,9 +909,6 @@
     <t>HFM+8AQaBKBacM/WH/81H8G44v3HvjExwoIa9nVWlJIta0EKSgLhtrtX6rhmpZuBXghHEk4mVxG+JFOMMQJ6+Cg=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1weCjP4FbngPQlWyYYurY8se789aIkyME/view</t>
-  </si>
-  <si>
     <t>10.08.2022</t>
   </si>
   <si>
@@ -1119,9 +924,6 @@
     <t>HFa8giAwmh7H5tdphmNqPT2w8NyaSL0zoQtw8vhcOO24OJF8JiXHbFSXbqsuWnvYikzoLh9en0UUOiDdQ/qu9iM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/16hoH7S5CG4j1AkODuF2JauuSmuDdRBnA/view</t>
-  </si>
-  <si>
     <t>16.08.2022</t>
   </si>
   <si>
@@ -1137,9 +939,6 @@
     <t>HFDQ9yfu6U/EX1zGYWGMzuZllAhZ0Raovu7AG+Imc26Qa764AnS95/dSLQ7UQt9Go+rOAxw7mjemhwWS7bIocD8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Bj5BoKMOSDdjAC6OEXgSct1rUFI8UpWS/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oleg Chaika</t>
   </si>
   <si>
@@ -1152,9 +951,6 @@
     <t>HGl/gXuPtt8M/8bCdJUa4gMn1i0me6N1NxOC/kl1Kbk6C7d/5u4zhbOjiYqYU38DGRQSiXH25MVys1FzzN3uYAQ=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/14j8PDwVHo2mp8hrhukLK9AlXl3iRU8QB/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yehor Podporinov</t>
   </si>
   <si>
@@ -1167,9 +963,6 @@
     <t>G2xO7B4Q+hdYRxBzyQaDhdsQu08oTGo4BF52Bl9If0c4DJKDCtwS9qoZx5Lj/2WEX02RiGVb6G02slDylbdqLAo=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1U_wDd5W1nZ-bjf0BBtA7ZHOIV9nxpy8v/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Artem Litkevych</t>
   </si>
   <si>
@@ -1182,9 +975,6 @@
     <t>HM6uF51YbAt3DbFxvVNTpeS9X1oDpHw0zFnNxLs999PuJNc1azg1gITStdzGKi8OvKjdT95PGN9f/sRqjNlY+2o=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1HFMIOJW2koYRE6w5si_ucIktQG07lW83/view</t>
-  </si>
-  <si>
     <t>17.08.2022</t>
   </si>
   <si>
@@ -1200,9 +990,6 @@
     <t>HOknl3bfOj6VWiF2cke75fBKUEhoJiAdgJIjzXMYR+mPe0Kx1XuF8nIHN+9jrnsbzNkPdUhb6jHrVKXTbhV8Q9w=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1kA7X60X6qEZrGm4pZRQhwM2anFwJ7IIF/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Arsenii Trybukh</t>
   </si>
   <si>
@@ -1215,9 +1002,6 @@
     <t>HCM9Lxm2HfN4TKyTb1Hswsn5VJpsxgiJW5R+SepjJ0UeRlgsboEmN4/JokRrXfcmW+0+luqqgSqpIF/cWkAGIW0=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Z9bW92yraB_sjig0pCJZHUTuvd9xv0SP/view</t>
-  </si>
-  <si>
     <t>18.08.2022</t>
   </si>
   <si>
@@ -1233,9 +1017,6 @@
     <t>G9Ch3H0JSIgK0D8+lUc+CVe5hh1/Qcz5M53LYvCPLGRtXm995jnkm8PhJ41ACFNTYNjNI1J86FZYJvp+vqILR7Y=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1jdS0WYL6AdvqRYpFMPy97LIZI4HW7EIe/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mykhailo Shcholkin</t>
   </si>
   <si>
@@ -1248,9 +1029,6 @@
     <t>G21MICmkB2iY2fm+JV0nz2xQiarIBwVrE/zcp7NtMHxLGDcy+b6eWyg24mbfLxrYGHmHI7f2Ifh18c4LBUx6jd8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/13CzXItDBlhDL5OqUK1lNS9g9aIL2RLjG/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sofiia Kireieva</t>
   </si>
   <si>
@@ -1263,9 +1041,6 @@
     <t>G69XJfmzHXDqV502Uhuy0UynJewLSZwOY17ZWoRWu+8fKZrLtItrl++E+920n1Az6u7sDFdBSFnUn8MMkLPmPrk=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1COBLE3DTZTT1g3RUR1vJciBFy5CY7l24/view</t>
-  </si>
-  <si>
     <t>19.08.2022</t>
   </si>
   <si>
@@ -1281,9 +1056,6 @@
     <t>G2jP4FhVjFgaeIXACmuv4NrkTHbT4Pw2fsgVYqydLjTHTp2bFOhYi9tu99P7C6MSdtXuYAkVEk7jPkH9tPRKMPw=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1L_J5TKkQIrNj1ZXeud5LhvVECuM2JZYb/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nikita Masych</t>
   </si>
   <si>
@@ -1296,9 +1068,6 @@
     <t>HKdVLhA3gtAdaK2mauBkiowhnv2Evab2QPeel+p14+GqdfMA0rlCfRhIaFd8QEx1bwC62VO7N+ue3qNrejGq4vk=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1PR6Vot3wWNtJC4DVKAv1FVgb3pFNEyA0/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mark Cherepovskyi</t>
   </si>
   <si>
@@ -1311,9 +1080,6 @@
     <t>G5B51sOpUq18kepe35rMw9WicCE1gp4icmIBoo3zjy+TD06p5inlInQt1WomW0tvEcye2foVrcdcBHrMqnC9pfo=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1QuH44yNT_S2OybI8T_Uh9ipgU6bjCnaw/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Viacheslav Horbanov</t>
   </si>
   <si>
@@ -1326,9 +1092,6 @@
     <t>HKpxDnYpWxDgjde7+Guu3BfglyLZHn8CSIxTn17IwxPuUfGHQDEVqrFM0MeyEBNAyZpkhKd/xI6fLRrcmAVWSDY=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1SgvTsrfPIVRgZTjv12gN28Fi3NwMkZif/view</t>
-  </si>
-  <si>
     <t>22.08.2022</t>
   </si>
   <si>
@@ -1344,9 +1107,6 @@
     <t>HHQI2fVR8mK2cT2CKboOJcWp2QYPiQNiw9VPCxmosNu9XigtlaKhIcX6aeB7MeRagImuPo4PKFwP3lV41PaiRWM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1_uLpXSYu2O0V0FtmkMr-L8MhEwAW4hBY/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kyrylo Riabov</t>
   </si>
   <si>
@@ -1359,9 +1119,6 @@
     <t>HIYr22IoaZsHMt8mZYzRPItPizb8Cgz+tML67na5URpbDhO5czzxTUfp5REntqVtSPZLPmkfi+E9apG20T11FHM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1c8RxWsJCx4qWM21hs9Ky1VF9JlodU6Bk/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oleksandr Kolesnyk</t>
   </si>
   <si>
@@ -1374,9 +1131,6 @@
     <t>G4lD8X41oRFy7CW2bmIknZKml/cSa36IX+BQ6GED5YydUXmGRs4WyhEEQrk67wJ4e1gzQZpb86PNONSIkqmbihc=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1VJmtkfnwKnqTjvCEMioSHZ-PF5WAmt_g/view</t>
-  </si>
-  <si>
     <t>23.08.2022</t>
   </si>
   <si>
@@ -1392,9 +1146,6 @@
     <t>G8uS3y3E18j4FkL7WCCPvfCy3xbdDx3VvFRySq8LNas5LNV8IZyf7dLuyzgiueQoYXv/VtG+7WybSGkWdEvMw88=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1UUQSSVkYeUCU-feRMWU4SkY_bPr6jGwa/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amina Yambulatova</t>
   </si>
   <si>
@@ -1407,9 +1158,6 @@
     <t>G9g/25PmJHzczdwBSSy0Zypc9ZTw+/+YXHbvvw/DHm/9W+MgQkve2zHsaohfLfd1pXPsRJ+laHxZzzZgleauDAs=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1hgpbVbPUEKJNWqultVcMZG3Xn52g08KN/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yegor Chukanov</t>
   </si>
   <si>
@@ -1422,9 +1170,6 @@
     <t>HGwq4A8p8OWC5Gh+teNqjrwCzbrT0mWdm2OuDoYtB3s1HgthxjnTOjy9hI+EerJD42qx4NTjmyKAB9cpY84rOKg=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1IHgaq3iq5fPMBgHRwdigxaSBzZuSlhLX/view</t>
-  </si>
-  <si>
     <t>24.08.2022</t>
   </si>
   <si>
@@ -1440,9 +1185,6 @@
     <t>G1juo7SBQZageFwRNPEys5X51AkNFvYuzGZjEuZEEItYJwfD03FjUeOtDPlRHnYj8rBLuAf/gCVBc2g1fV3w4wY=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1u85NtZ1_OBu-YwfoIjDFaLamBz5ZcBU8/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mykhailo Sokolov</t>
   </si>
   <si>
@@ -1455,9 +1197,6 @@
     <t>HIqeKGpM6CeW69LC2KUeOJ9DRnIDBY+r995bjEVZo8pLDWXucjkEriUeL8WyPveeSxxPg7hM8PqDICAEPlVCouk=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19bTC3O5f0M4E7bGX_C29TMj4aWdw6h1s/view</t>
-  </si>
-  <si>
     <t>25.08.2022</t>
   </si>
   <si>
@@ -1473,9 +1212,6 @@
     <t>G8mavASwRAESd8slmxm1h9U4N6GoYmgCKDKXl8T/zpv6KTqrqhp1n8tXhH7flfqxI88ksENHVZ8D+dYALB3M5Xo=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Vuf6JonIZV5GVLcdFgIpcXtpZ4FhdJ7D/view</t>
-  </si>
-  <si>
     <t>26.08.2022</t>
   </si>
   <si>
@@ -1491,9 +1227,6 @@
     <t>Gw56LuM5gYEPRCkhmZ6K29DG3idPfq6lawS2onGmpo38efTvJlIFfopETOm/W1WkS+UuYHQsremfscaqHR3acyY=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ye6DNp05VWMLUxK9jUwvOuPm98ECULFF/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Artem Levkin</t>
   </si>
   <si>
@@ -1506,9 +1239,6 @@
     <t>G8ah5f2UjwoYEixl7OZKZrVAizGnQBy+lwuL+ammNcBqEjR8riRwunMmhjuzXKnQ8orFQJXmZhMvaCtDzItFhnw=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1EyiSARvqOQueUVsvPhpJ0Y6TW80O-UY_/view</t>
-  </si>
-  <si>
     <t>29.08.2022</t>
   </si>
   <si>
@@ -1524,9 +1254,6 @@
     <t>G0ZjvUb5sgyD719aQ7ygiXigPsrGpMAmw0TdIjX2xBb4BuYLIXwlOY1LYnd5sdVo6jKKXK6g1s4UIJKuU8RPHew=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1szgyLznVhixHfqGg9yxR1Fg5_mh4cNb8/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Artem Zubrych</t>
   </si>
   <si>
@@ -1539,9 +1266,6 @@
     <t>GzMrbbTOSSl0/ql8CiImmJSDgqgJUtSq87qEm3e4f1HUDlkuor0IcoFP2Jf9vSiQXbE3YJaOZ40DHqr8oSg+roc=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1NK2jFFCCooM7XxS-RiTb-mpSi9WW4yyz/view</t>
-  </si>
-  <si>
     <t>30.08.2022</t>
   </si>
   <si>
@@ -1557,9 +1281,6 @@
     <t>HIhvyjj7WGrwrUbsuWPUTAKqKtxfC9u3gJ1V8w+AsfkMDrZmymnpA/ScCurlcuX7M6q7OXFso7OfbFtzTlNkx0E=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1tmvx6Fp7rOK27A7s9aSPI3BT94cPbNVy/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eugene Petrikeev</t>
   </si>
   <si>
@@ -1572,9 +1293,6 @@
     <t>G2ZueU8SyB00Pru2Gbk4Y4zUXtkuEm3BwdBArAtr5mwqa3CSk8hS/tw/n3taWXsYOLN2wbMWQWcfsBiEFlUB3+Q=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1wL4HKxmgA_izt3FjV2m3NbMblHCbuA-f/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yurii Poberezhnyi</t>
   </si>
   <si>
@@ -1587,9 +1305,6 @@
     <t>G7odIa2nR2CTXihZ272zal5AhXr13DqLqqyxkYgyuEN7cLxIlWKECJnfXCeXzPqGH8fBfl9v7DunBuqlObCkULE=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1bc0fsUoLDa0OkDVOaXe_7pGYNuc7gb6Z/view</t>
-  </si>
-  <si>
     <t>07.09.2022</t>
   </si>
   <si>
@@ -1605,9 +1320,6 @@
     <t>HAFRgVQFeujXBXYVTCe8VE2auw6Uz+L7Lzq6SSmMkvoEYyvkGFCp6L0hO5+CtccnYIEPL5r5hiDHuG6deADYunw=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1MMw_yJGQg6mBdShmT2Grg4FlAzk6HRsm/view</t>
-  </si>
-  <si>
     <t>07.12.2022</t>
   </si>
   <si>
@@ -1626,9 +1338,6 @@
     <t>Gxb5qLCO2gOVk0XmAl5V0xEK4mWcrjqA5qw51GpsOz7mIajkq6+QkZj9qyqPbzcd2vRlji2whyQPpa58B92Jpw4=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1MN2ycgfdzKJoBNtHNI9pN0ZvNZM9Q2n-/view</t>
-  </si>
-  <si>
     <t>08.12.2022</t>
   </si>
   <si>
@@ -1644,9 +1353,6 @@
     <t>HDb3/S0qJ/hv7vYMP1ZqYnk4Y8RcwlpISSEsOQrArUPGQj4lAL1fzpn7iRYLH23LEYv1ECvia7I/aGki2RCqb/s=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1___25YwFwZWrNXgYidZilcVPJdDYE94n/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ievgeniia Bondar</t>
   </si>
   <si>
@@ -1659,9 +1365,6 @@
     <t>HIgwLjNpC9EMttrwVCHCqYNaw9oP6JDSNC3WNNknWncLPhG4ednynhWTcdaeAX+FwguxVwPvX9m7LvvlPFKLdrQ=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Ej67G9aGL2tgSNjZu7pYNERIdypvQwWM/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sofia Golets</t>
   </si>
   <si>
@@ -1674,9 +1377,6 @@
     <t>HBabTC2ygOQ+iqxIRo7A4uu6gllcQml5FLggMVySfR6Db60y77BToxgXwXmdwrHtoN1Gua5C8I7MgdjeDLZ8JCo=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1RoaoAPN8G1Tcmwr2ivxUxhTHbYqZ3KOl/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mykyta Tsyvinskyi</t>
   </si>
   <si>
@@ -1689,9 +1389,6 @@
     <t>HPq9RQ1vlbJ4N83dgUwLLBJcN4AFaUJYC8F8BVzxUkYDR6OqA/YcNOeiukloL3UmZXPkluIN4lwoBhMr6vEj8KA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Ilp5R4A32S_NWDIQCotQMlG-HV0a9Mke/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cryptography and information security theory</t>
   </si>
   <si>
@@ -1704,9 +1401,6 @@
     <t>G+LRDlMfhyvZO7qLoCtZi3Y4Q1yC/VmYJUOF79rRwGAGH93HyPOn0ZUp6fjZE87K+JkhhSiBVl2Pf+AGfNu10RA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1ew9G-tDrpGXFDJkgd78CUJXTY8ArigOt/view</t>
-  </si>
-  <si>
     <t>09.12.2022</t>
   </si>
   <si>
@@ -1719,9 +1413,6 @@
     <t>G8FalVqgQocrfJLlZmP9e76Z9t26v1gwrDzzjckei89eQgv6utrC5/Tx62NoCPt1u4EWkCFyccyEuy8FOsOnjtM=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1btetnuPI1AcY5OAADBGHmOhlu6yr5dxV/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kateryna Hordiienko</t>
   </si>
   <si>
@@ -1734,9 +1425,6 @@
     <t>G+YE6/0P9zPNxZ1YU3AR+TXthT9PlF8Gx3dM9k7Y2cNIIrTalRdUgSTwwSMu/mcimZUsZLZ5l2puCtwVP6ll5kI=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1M5yv-YM6dyg-D_R062-DKGdiFTDipSTW/view</t>
-  </si>
-  <si>
     <t>12.12.2022</t>
   </si>
   <si>
@@ -1749,9 +1437,6 @@
     <t>G11bw0NMOTyr+kZ3HiySXxlzt4gjcFWjXTypvr6Lhl5sbFSVpzIzmc9E4TVP/fDQXH5yEqb67EOF8dGgrWOyXOU=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1SiVpOf6Gj6s-v9efagnmbYaJc6LM4PGl/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yuliia Aritkulova</t>
   </si>
   <si>
@@ -1764,9 +1449,6 @@
     <t>HGoEk/y9kiwBSF9cMiOClOSNtviGjcJylz3TuZUULAVcC8Gx1XGbVYWpWMB4aLPfkZhN7OKce2kkKQ9ADcgzaHI=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1zUT6CFUQg5rnffDTSPIImIOQy7HbBd7-/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oleksandr Yevtushenko</t>
   </si>
   <si>
@@ -1779,9 +1461,6 @@
     <t>G9WI+TMiMLY1UW9rtOW0ycI21KtE3yOBTQ511sJbmfIXWvRQanASycY6fUpVGhO7iM8gyJxecc4xx2ytHX1VgzY=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1nRgJlqBVNMVNVe66vM8bRnM0WTbalhAU/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mariia Mahdalina</t>
   </si>
   <si>
@@ -1794,9 +1473,6 @@
     <t>HAxDgAqvSDtLYbdDhyc88l9igZ8/dmzp3+4TAVQXHMelL+qELJVHvRnOAobpaXU7p8Rj9a7taRtzW/nkCowSS5U=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1s16FWAPzxJF-4MuSBhkQVN8t8y441ujl/view</t>
-  </si>
-  <si>
     <t>766041da4e35a4d0486d</t>
   </si>
   <si>
@@ -1806,9 +1482,6 @@
     <t>G6T2wslW9Mlopb7SNt9oGcOSZmjSMvsByzfIQBZfwVweUZ7U2Mi5N0BkW7xhpRFkMMCWlY1kHu4VefyQzGyK5dA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/19yfjSKsAXBbmnEW_X4QRmfX-Gg9vI0Wu/view</t>
-  </si>
-  <si>
     <t>13.12.2022</t>
   </si>
   <si>
@@ -1824,9 +1497,6 @@
     <t>HJVKQ2Uj9PkXKh4aB7EUy+qqEtzziBAX7CaNWYTiFDyXIQ5w6CG1bIat2vs1GsmBD+r6z55FbUFJFdXz57+QgUc=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1L5SYyeWKdfhxHlnjB_3laqfdXAm2a9jk/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Polina Reshetnikova</t>
   </si>
   <si>
@@ -1839,9 +1509,6 @@
     <t>G63Lq+BtAcEqpIZphPzrLfd1K4chy2llUoMMBLMQGk5gdyNM+62UvBxqqOxckVeN2RtGC1vCiL0NvWNvEPfV4YE=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/18vbV0tx-40SaXchdBcoQoQS-0-oy2ieD/view</t>
-  </si>
-  <si>
     <t>93620030db08953cbf17</t>
   </si>
   <si>
@@ -1851,9 +1518,6 @@
     <t>HHbiD8H1z2fwCjgA0K/0GymJl4RcCi3wnehCfa72EOF+RwXPgmdTom5TH/IQ6e5AjmLndgB/4YfHFtdBTD1hpx0=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1m31rR1cgIRp88u6E6Q0wykOuPYCjcQJC/view</t>
-  </si>
-  <si>
     <t>b3240a1974bff838f353</t>
   </si>
   <si>
@@ -1863,9 +1527,6 @@
     <t>HE5sTfhDSPPfvHdDSYkSvX2ZkktsyYMaoVxamHtpKMWoUxr7olw6SaItyMSztkPit37aQqfQ+YAsvCfZ01AcAwc=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1DG7IFSWC7zOGwoy0nig5W7YRy5KBEN1g/view</t>
-  </si>
-  <si>
     <t>14.12.2022</t>
   </si>
   <si>
@@ -1878,9 +1539,6 @@
     <t>G6+s7V2DHLaRMUYNOIA8N40KmelApLWT3iXHGYHXv0ZJIGVzGNez6R9Ai+af6Go130PTYDBGSDSN/q4KZdDYaqI=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1t3kreYQ2UHtFlaAjRlyFmrZtHw6qJTAw/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pasha Charovatiy</t>
   </si>
   <si>
@@ -1893,9 +1551,6 @@
     <t>G7RWOhYR3Pga7E8mj5Et4kkWc7KuUetPMGwNK9GBcXidXEmOn5A4bZr6u3pSr5OoaxZ8UjdHdb0bTK1X7lEavnk=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1Dg4AzbvDILXUMie6oUG5cVHt3WZT2d0_/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dmytro Serhiienko</t>
   </si>
   <si>
@@ -1908,9 +1563,6 @@
     <t>G2X/6IWqMC2Ymk+rqd3pVM249KmwfExvjnsilLmKcIDST7fVzip5FqwERspfBc+vRT9X3TLONlOopGsxmrlg66Y=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/16q8aWcaKwku_XelAu3r1Cd3LFl357h2K/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vladislav Dmitrenko</t>
   </si>
   <si>
@@ -1923,9 +1575,6 @@
     <t>HFVHGzz5fLLwIDpbXHtv3bag0i23gGXtR9qTV+i7/M17V/LEtIWkrIvmP+sVC0DQ2HxtNux5N00OioXu96ZQt+8=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1CkhzVMntjNglBFJ_quAb1l2Fy5nhYOGc/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marina Rindina</t>
   </si>
   <si>
@@ -1938,9 +1587,6 @@
     <t>HGAKfmnHj8txRq9vnJYL+4CzcrKQOcEeeUcwmL008Qw+BXNOZF20s86M17JhYF8d9ABQnHhRnj+X5d3DsBWt/74=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1FV9Rr3hWwOxPJdadhW5Nzq9NfWi_B48u/view</t>
-  </si>
-  <si>
     <t>15.12.2022</t>
   </si>
   <si>
@@ -1956,9 +1602,6 @@
     <t>HL/mv02dnaeyvxsR9TyKJfqMl9lFEn1L8OidD6AzOq6SbieHRkQRPK29os5vKBwoJ5+Bf7RtfN9xUiVEOCASXj0=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1RStgJRdjNV1cVglIO-8ExY-HNpAj0YtZ/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Olha Drahomeretska</t>
   </si>
   <si>
@@ -1971,9 +1614,6 @@
     <t>HErdMQ+2CPtlOJcP0I5vxghyuQmJVGZrrQr9SzMolPyHA1fUnzBjAbN7DzwkyP+y7M+dkiNCGOkNsY3YZaCO1XA=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/10gtXZgpsxXw-YKqgo0NYwTiqd_WZiywv/view</t>
-  </si>
-  <si>
     <t xml:space="preserve">Maksym Cherniak</t>
   </si>
   <si>
@@ -1986,9 +1626,6 @@
     <t>HFsvImraI1pnG2rg4i0wdJncZx8WDDmyLmfp4YGsC/EJOrFIARj32EBYcrPX9GvGkI5YQdTVz4kCHGI7Y1+kc/s=</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1uF6zz6-Y2VdqfdEXvV4sAHT9HQu3qUC5/view</t>
-  </si>
-  <si>
     <t>3bf214d846d708bfad51</t>
   </si>
   <si>
@@ -1996,9 +1633,6 @@
   </si>
   <si>
     <t>HDfq7iIvfl/KNv5Cs/GPeiZndLZYqskpWWIXt7VX3LunRfVInSqJiTeO33MHHKI8aX3Zz4VgDh7LV5fAg/zZPZk=</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/19D6-58mT4Cu2IZBm6Arsx-odapX32Qsd/view</t>
   </si>
 </sst>
 </file>
@@ -2541,19 +2175,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="I25" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="27.00390625"/>
-    <col customWidth="1" min="2" max="2" width="42.57421875"/>
-    <col customWidth="1" min="3" max="3" width="60.57421875"/>
-    <col customWidth="1" min="4" max="4" width="51.00390625"/>
-    <col customWidth="1" min="7" max="7" width="73.421875"/>
-    <col customWidth="1" min="9" max="9" width="119.7109375"/>
-    <col customWidth="1" min="10" max="10" width="81.28125"/>
+    <col customWidth="1" min="1" max="1" width="30.140625"/>
+    <col customWidth="1" min="2" max="2" width="32.421875"/>
+    <col customWidth="1" min="3" max="3" width="76.7109375"/>
+    <col customWidth="1" min="4" max="4" width="32.7109375"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2649,7 +2280,7 @@
         <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -2657,31 +2288,31 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
         <v>27</v>
       </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>28</v>
-      </c>
       <c r="J4" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -2689,31 +2320,31 @@
         <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
       </c>
       <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -2721,13 +2352,13 @@
         <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
         <v>14</v>
@@ -2736,16 +2367,16 @@
         <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H6" t="s">
         <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -2753,13 +2384,13 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>14</v>
@@ -2768,16 +2399,16 @@
         <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
@@ -2785,13 +2416,13 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -2800,16 +2431,16 @@
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -2817,13 +2448,13 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>14</v>
@@ -2832,16 +2463,16 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
@@ -2849,13 +2480,13 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
         <v>14</v>
@@ -2864,16 +2495,16 @@
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -2881,13 +2512,13 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -2896,16 +2527,16 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12">
@@ -2913,13 +2544,13 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
         <v>14</v>
@@ -2928,16 +2559,16 @@
         <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -2945,13 +2576,13 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -2960,16 +2591,16 @@
         <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14">
@@ -2977,13 +2608,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>14</v>
@@ -2992,16 +2623,16 @@
         <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="H14" t="s">
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>79</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -3009,13 +2640,13 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
         <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>14</v>
@@ -3024,16 +2655,16 @@
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H15" t="s">
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16">
@@ -3041,13 +2672,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
         <v>14</v>
@@ -3056,16 +2687,16 @@
         <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -3073,13 +2704,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E17" t="s">
         <v>14</v>
@@ -3088,16 +2719,16 @@
         <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s">
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s">
-        <v>94</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
@@ -3105,13 +2736,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
         <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
@@ -3120,16 +2751,16 @@
         <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s">
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -3137,13 +2768,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
@@ -3152,30 +2783,30 @@
         <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s">
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>104</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E20" t="s">
         <v>14</v>
@@ -3184,30 +2815,30 @@
         <v>14</v>
       </c>
       <c r="G20" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="H20" t="s">
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
         <v>14</v>
@@ -3216,30 +2847,30 @@
         <v>14</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="H21" t="s">
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J21" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="E22" t="s">
         <v>14</v>
@@ -3248,30 +2879,30 @@
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E23" t="s">
         <v>14</v>
@@ -3280,30 +2911,30 @@
         <v>14</v>
       </c>
       <c r="G23" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="H23" t="s">
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J23" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
         <v>105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>126</v>
       </c>
       <c r="C24" t="s">
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="E24" t="s">
         <v>14</v>
@@ -3312,30 +2943,30 @@
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="H24" t="s">
         <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="J24" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B25" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C25" t="s">
         <v>20</v>
       </c>
       <c r="D25" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E25" t="s">
         <v>14</v>
@@ -3344,30 +2975,30 @@
         <v>14</v>
       </c>
       <c r="G25" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="H25" t="s">
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B26" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="C26" t="s">
         <v>20</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="E26" t="s">
         <v>14</v>
@@ -3376,30 +3007,30 @@
         <v>14</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="H26" t="s">
         <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="J26" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E27" t="s">
         <v>14</v>
@@ -3408,30 +3039,30 @@
         <v>14</v>
       </c>
       <c r="G27" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="E28" t="s">
         <v>14</v>
@@ -3440,30 +3071,30 @@
         <v>14</v>
       </c>
       <c r="G28" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="H28" t="s">
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="J28" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C29" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="E29" t="s">
         <v>14</v>
@@ -3472,30 +3103,30 @@
         <v>14</v>
       </c>
       <c r="G29" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="H29" t="s">
         <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="J29" t="s">
-        <v>158</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C30" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -3504,30 +3135,30 @@
         <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="H30" t="s">
         <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="J30" t="s">
-        <v>163</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D31" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -3536,30 +3167,30 @@
         <v>14</v>
       </c>
       <c r="G31" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="E32" t="s">
         <v>14</v>
@@ -3568,63 +3199,63 @@
         <v>14</v>
       </c>
       <c r="G32" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="H32" t="s">
         <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="J32" t="s">
-        <v>173</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" t="s">
+        <v>144</v>
+      </c>
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
         <v>147</v>
       </c>
-      <c r="B33" t="s">
-        <v>174</v>
-      </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" t="s">
-        <v>175</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>176</v>
-      </c>
-      <c r="H33" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" t="s">
-        <v>177</v>
-      </c>
       <c r="J33" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="C34" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" t="s">
         <v>149</v>
       </c>
-      <c r="D34" t="s">
-        <v>180</v>
-      </c>
       <c r="E34" t="s">
         <v>14</v>
       </c>
@@ -3632,30 +3263,30 @@
         <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="H34" t="s">
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="J34" t="s">
-        <v>183</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="C35" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>185</v>
+        <v>153</v>
       </c>
       <c r="E35" t="s">
         <v>14</v>
@@ -3664,30 +3295,30 @@
         <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="H35" t="s">
         <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="J35" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="E36" t="s">
         <v>14</v>
@@ -3696,30 +3327,30 @@
         <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="H36" t="s">
         <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="J36" t="s">
-        <v>193</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B37" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="C37" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
@@ -3728,30 +3359,30 @@
         <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="H37" t="s">
         <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="J37" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D38" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="E38" t="s">
         <v>14</v>
@@ -3760,30 +3391,30 @@
         <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="H38" t="s">
         <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="J38" t="s">
-        <v>205</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D39" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
       <c r="E39" t="s">
         <v>14</v>
@@ -3792,30 +3423,30 @@
         <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="H39" t="s">
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="J39" t="s">
-        <v>211</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C40" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D40" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="E40" t="s">
         <v>14</v>
@@ -3824,30 +3455,30 @@
         <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="H40" t="s">
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="J40" t="s">
-        <v>217</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>180</v>
       </c>
       <c r="B41" t="s">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
-        <v>220</v>
+        <v>182</v>
       </c>
       <c r="E41" t="s">
         <v>14</v>
@@ -3856,30 +3487,30 @@
         <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="H41" t="s">
         <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="J41" t="s">
-        <v>223</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B42" t="s">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="C42" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D42" t="s">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="E42" t="s">
         <v>14</v>
@@ -3888,30 +3519,30 @@
         <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="H42" t="s">
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
       <c r="J42" t="s">
-        <v>229</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="E43" t="s">
         <v>14</v>
@@ -3920,30 +3551,30 @@
         <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="H43" t="s">
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="J43" t="s">
-        <v>235</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="B44" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="E44" t="s">
         <v>14</v>
@@ -3952,31 +3583,31 @@
         <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="H44" t="s">
         <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="J44" t="s">
-        <v>240</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="B45" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="C45" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" t="s">
         <v>201</v>
       </c>
-      <c r="D45" t="s">
-        <v>243</v>
-      </c>
       <c r="E45" t="s">
         <v>14</v>
       </c>
@@ -3984,30 +3615,30 @@
         <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="H45" t="s">
         <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="J45" t="s">
-        <v>246</v>
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="B46" t="s">
-        <v>248</v>
+        <v>205</v>
       </c>
       <c r="C46" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="D46" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="E46" t="s">
         <v>14</v>
@@ -4016,30 +3647,30 @@
         <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>250</v>
+        <v>207</v>
       </c>
       <c r="H46" t="s">
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>251</v>
+        <v>208</v>
       </c>
       <c r="J46" t="s">
-        <v>252</v>
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>210</v>
       </c>
       <c r="C47" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D47" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
         <v>14</v>
@@ -4048,30 +3679,30 @@
         <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>213</v>
       </c>
       <c r="H47" t="s">
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="J47" t="s">
-        <v>259</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>253</v>
+        <v>209</v>
       </c>
       <c r="B48" t="s">
-        <v>260</v>
+        <v>215</v>
       </c>
       <c r="C48" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s">
-        <v>261</v>
+        <v>216</v>
       </c>
       <c r="E48" t="s">
         <v>14</v>
@@ -4080,30 +3711,30 @@
         <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="H48" t="s">
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>263</v>
+        <v>218</v>
       </c>
       <c r="J48" t="s">
-        <v>264</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C49" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="E49" t="s">
         <v>14</v>
@@ -4112,30 +3743,30 @@
         <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="H49" t="s">
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="J49" t="s">
-        <v>270</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s">
-        <v>272</v>
+        <v>225</v>
       </c>
       <c r="E50" t="s">
         <v>14</v>
@@ -4144,30 +3775,30 @@
         <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>273</v>
+        <v>226</v>
       </c>
       <c r="H50" t="s">
         <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="J50" t="s">
-        <v>275</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C51" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="E51" t="s">
         <v>14</v>
@@ -4176,30 +3807,30 @@
         <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>278</v>
+        <v>230</v>
       </c>
       <c r="H51" t="s">
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="J51" t="s">
-        <v>280</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B52" t="s">
-        <v>281</v>
+        <v>232</v>
       </c>
       <c r="C52" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D52" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="E52" t="s">
         <v>14</v>
@@ -4208,30 +3839,30 @@
         <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="H52" t="s">
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="J52" t="s">
-        <v>285</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B53" t="s">
-        <v>286</v>
+        <v>236</v>
       </c>
       <c r="C53" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D53" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
         <v>14</v>
@@ -4240,30 +3871,30 @@
         <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>288</v>
+        <v>238</v>
       </c>
       <c r="H53" t="s">
         <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="J53" t="s">
-        <v>290</v>
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
-        <v>291</v>
+        <v>240</v>
       </c>
       <c r="C54" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D54" t="s">
-        <v>292</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
         <v>14</v>
@@ -4272,30 +3903,30 @@
         <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="H54" t="s">
         <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="J54" t="s">
-        <v>295</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
       <c r="C55" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D55" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="E55" t="s">
         <v>14</v>
@@ -4304,30 +3935,30 @@
         <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
       <c r="H55" t="s">
         <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="J55" t="s">
-        <v>300</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>248</v>
       </c>
       <c r="C56" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>302</v>
+        <v>249</v>
       </c>
       <c r="E56" t="s">
         <v>14</v>
@@ -4336,30 +3967,30 @@
         <v>14</v>
       </c>
       <c r="G56" t="s">
-        <v>303</v>
+        <v>250</v>
       </c>
       <c r="H56" t="s">
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="J56" t="s">
-        <v>305</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
       <c r="C57" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
         <v>14</v>
@@ -4368,62 +3999,62 @@
         <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="H57" t="s">
         <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="J57" t="s">
-        <v>306</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="B58" t="s">
-        <v>307</v>
+        <v>252</v>
       </c>
       <c r="C58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>253</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
         <v>255</v>
       </c>
-      <c r="D58" t="s">
-        <v>308</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s">
-        <v>309</v>
-      </c>
-      <c r="H58" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" t="s">
-        <v>310</v>
-      </c>
       <c r="J58" t="s">
-        <v>311</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
-        <v>313</v>
+        <v>257</v>
       </c>
       <c r="C59" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D59" t="s">
-        <v>314</v>
+        <v>258</v>
       </c>
       <c r="E59" t="s">
         <v>14</v>
@@ -4432,30 +4063,30 @@
         <v>14</v>
       </c>
       <c r="G59" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="H59" t="s">
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="J59" t="s">
-        <v>317</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="B60" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="C60" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D60" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="E60" t="s">
         <v>14</v>
@@ -4464,30 +4095,30 @@
         <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
       <c r="H60" t="s">
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="J60" t="s">
-        <v>323</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="B61" t="s">
-        <v>324</v>
+        <v>266</v>
       </c>
       <c r="C61" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>325</v>
+        <v>267</v>
       </c>
       <c r="E61" t="s">
         <v>14</v>
@@ -4496,30 +4127,30 @@
         <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>326</v>
+        <v>268</v>
       </c>
       <c r="H61" t="s">
         <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>327</v>
+        <v>269</v>
       </c>
       <c r="J61" t="s">
-        <v>328</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>329</v>
+        <v>270</v>
       </c>
       <c r="B62" t="s">
-        <v>330</v>
+        <v>271</v>
       </c>
       <c r="C62" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D62" t="s">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="E62" t="s">
         <v>14</v>
@@ -4528,30 +4159,30 @@
         <v>14</v>
       </c>
       <c r="G62" t="s">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="H62" t="s">
         <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>333</v>
+        <v>274</v>
       </c>
       <c r="J62" t="s">
-        <v>334</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>335</v>
+        <v>275</v>
       </c>
       <c r="B63" t="s">
-        <v>336</v>
+        <v>276</v>
       </c>
       <c r="C63" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D63" t="s">
-        <v>337</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
         <v>14</v>
@@ -4560,30 +4191,30 @@
         <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>338</v>
+        <v>278</v>
       </c>
       <c r="H63" t="s">
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>339</v>
+        <v>279</v>
       </c>
       <c r="J63" t="s">
-        <v>340</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="B64" t="s">
-        <v>342</v>
+        <v>281</v>
       </c>
       <c r="C64" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D64" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="E64" t="s">
         <v>14</v>
@@ -4592,30 +4223,30 @@
         <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="H64" t="s">
         <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>345</v>
+        <v>284</v>
       </c>
       <c r="J64" t="s">
-        <v>346</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>341</v>
+        <v>280</v>
       </c>
       <c r="B65" t="s">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="C65" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D65" t="s">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="E65" t="s">
         <v>14</v>
@@ -4624,30 +4255,30 @@
         <v>14</v>
       </c>
       <c r="G65" t="s">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="H65" t="s">
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>350</v>
+        <v>288</v>
       </c>
       <c r="J65" t="s">
-        <v>351</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="B66" t="s">
-        <v>353</v>
+        <v>290</v>
       </c>
       <c r="C66" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>354</v>
+        <v>291</v>
       </c>
       <c r="E66" t="s">
         <v>14</v>
@@ -4656,30 +4287,30 @@
         <v>14</v>
       </c>
       <c r="G66" t="s">
-        <v>355</v>
+        <v>292</v>
       </c>
       <c r="H66" t="s">
         <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>356</v>
+        <v>293</v>
       </c>
       <c r="J66" t="s">
-        <v>357</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>352</v>
+        <v>289</v>
       </c>
       <c r="B67" t="s">
-        <v>358</v>
+        <v>294</v>
       </c>
       <c r="C67" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D67" t="s">
-        <v>359</v>
+        <v>295</v>
       </c>
       <c r="E67" t="s">
         <v>14</v>
@@ -4688,30 +4319,30 @@
         <v>14</v>
       </c>
       <c r="G67" t="s">
-        <v>360</v>
+        <v>296</v>
       </c>
       <c r="H67" t="s">
         <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>361</v>
+        <v>297</v>
       </c>
       <c r="J67" t="s">
-        <v>362</v>
+        <v>17</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>363</v>
+        <v>298</v>
       </c>
       <c r="B68" t="s">
-        <v>364</v>
+        <v>299</v>
       </c>
       <c r="C68" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
-        <v>365</v>
+        <v>300</v>
       </c>
       <c r="E68" t="s">
         <v>14</v>
@@ -4720,30 +4351,30 @@
         <v>14</v>
       </c>
       <c r="G68" t="s">
-        <v>366</v>
+        <v>301</v>
       </c>
       <c r="H68" t="s">
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>367</v>
+        <v>302</v>
       </c>
       <c r="J68" t="s">
-        <v>368</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="B69" t="s">
-        <v>370</v>
+        <v>304</v>
       </c>
       <c r="C69" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D69" t="s">
-        <v>371</v>
+        <v>305</v>
       </c>
       <c r="E69" t="s">
         <v>14</v>
@@ -4752,30 +4383,30 @@
         <v>14</v>
       </c>
       <c r="G69" t="s">
-        <v>372</v>
+        <v>306</v>
       </c>
       <c r="H69" t="s">
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>373</v>
+        <v>307</v>
       </c>
       <c r="J69" t="s">
-        <v>374</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="B70" t="s">
-        <v>375</v>
+        <v>308</v>
       </c>
       <c r="C70" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D70" t="s">
-        <v>376</v>
+        <v>309</v>
       </c>
       <c r="E70" t="s">
         <v>14</v>
@@ -4784,30 +4415,30 @@
         <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="H70" t="s">
         <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>378</v>
+        <v>311</v>
       </c>
       <c r="J70" t="s">
-        <v>379</v>
+        <v>17</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="B71" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="C71" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D71" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="E71" t="s">
         <v>14</v>
@@ -4816,30 +4447,30 @@
         <v>14</v>
       </c>
       <c r="G71" t="s">
-        <v>382</v>
+        <v>314</v>
       </c>
       <c r="H71" t="s">
         <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>383</v>
+        <v>315</v>
       </c>
       <c r="J71" t="s">
-        <v>384</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>369</v>
+        <v>303</v>
       </c>
       <c r="B72" t="s">
-        <v>385</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D72" t="s">
-        <v>386</v>
+        <v>317</v>
       </c>
       <c r="E72" t="s">
         <v>14</v>
@@ -4848,30 +4479,30 @@
         <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>387</v>
+        <v>318</v>
       </c>
       <c r="H72" t="s">
         <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>388</v>
+        <v>319</v>
       </c>
       <c r="J72" t="s">
-        <v>389</v>
+        <v>17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="B73" t="s">
-        <v>391</v>
+        <v>321</v>
       </c>
       <c r="C73" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="E73" t="s">
         <v>14</v>
@@ -4880,30 +4511,30 @@
         <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>393</v>
+        <v>323</v>
       </c>
       <c r="H73" t="s">
         <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>394</v>
+        <v>324</v>
       </c>
       <c r="J73" t="s">
-        <v>395</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>390</v>
+        <v>320</v>
       </c>
       <c r="B74" t="s">
-        <v>396</v>
+        <v>325</v>
       </c>
       <c r="C74" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>397</v>
+        <v>326</v>
       </c>
       <c r="E74" t="s">
         <v>14</v>
@@ -4912,30 +4543,30 @@
         <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>398</v>
+        <v>327</v>
       </c>
       <c r="H74" t="s">
         <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>399</v>
+        <v>328</v>
       </c>
       <c r="J74" t="s">
-        <v>400</v>
+        <v>17</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="B75" t="s">
-        <v>402</v>
+        <v>330</v>
       </c>
       <c r="C75" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
-        <v>403</v>
+        <v>331</v>
       </c>
       <c r="E75" t="s">
         <v>14</v>
@@ -4944,30 +4575,30 @@
         <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>404</v>
+        <v>332</v>
       </c>
       <c r="H75" t="s">
         <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="J75" t="s">
-        <v>406</v>
+        <v>17</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="B76" t="s">
-        <v>407</v>
+        <v>334</v>
       </c>
       <c r="C76" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D76" t="s">
-        <v>408</v>
+        <v>335</v>
       </c>
       <c r="E76" t="s">
         <v>14</v>
@@ -4976,30 +4607,30 @@
         <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>409</v>
+        <v>336</v>
       </c>
       <c r="H76" t="s">
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>410</v>
+        <v>337</v>
       </c>
       <c r="J76" t="s">
-        <v>411</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>401</v>
+        <v>329</v>
       </c>
       <c r="B77" t="s">
-        <v>412</v>
+        <v>338</v>
       </c>
       <c r="C77" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D77" t="s">
-        <v>413</v>
+        <v>339</v>
       </c>
       <c r="E77" t="s">
         <v>14</v>
@@ -5008,30 +4639,30 @@
         <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>414</v>
+        <v>340</v>
       </c>
       <c r="H77" t="s">
         <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>415</v>
+        <v>341</v>
       </c>
       <c r="J77" t="s">
-        <v>416</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="B78" t="s">
-        <v>418</v>
+        <v>343</v>
       </c>
       <c r="C78" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D78" t="s">
-        <v>419</v>
+        <v>344</v>
       </c>
       <c r="E78" t="s">
         <v>14</v>
@@ -5040,30 +4671,30 @@
         <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>420</v>
+        <v>345</v>
       </c>
       <c r="H78" t="s">
         <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>421</v>
+        <v>346</v>
       </c>
       <c r="J78" t="s">
-        <v>422</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="B79" t="s">
-        <v>423</v>
+        <v>347</v>
       </c>
       <c r="C79" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D79" t="s">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
@@ -5072,30 +4703,30 @@
         <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>425</v>
+        <v>349</v>
       </c>
       <c r="H79" t="s">
         <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>426</v>
+        <v>350</v>
       </c>
       <c r="J79" t="s">
-        <v>427</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="B80" t="s">
-        <v>428</v>
+        <v>351</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D80" t="s">
-        <v>429</v>
+        <v>352</v>
       </c>
       <c r="E80" t="s">
         <v>14</v>
@@ -5104,30 +4735,30 @@
         <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>430</v>
+        <v>353</v>
       </c>
       <c r="H80" t="s">
         <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>431</v>
+        <v>354</v>
       </c>
       <c r="J80" t="s">
-        <v>432</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>417</v>
+        <v>342</v>
       </c>
       <c r="B81" t="s">
-        <v>433</v>
+        <v>355</v>
       </c>
       <c r="C81" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D81" t="s">
-        <v>434</v>
+        <v>356</v>
       </c>
       <c r="E81" t="s">
         <v>14</v>
@@ -5136,30 +4767,30 @@
         <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>435</v>
+        <v>357</v>
       </c>
       <c r="H81" t="s">
         <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>436</v>
+        <v>358</v>
       </c>
       <c r="J81" t="s">
-        <v>437</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="B82" t="s">
-        <v>439</v>
+        <v>360</v>
       </c>
       <c r="C82" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D82" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
       <c r="E82" t="s">
         <v>14</v>
@@ -5168,30 +4799,30 @@
         <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>441</v>
+        <v>362</v>
       </c>
       <c r="H82" t="s">
         <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>442</v>
+        <v>363</v>
       </c>
       <c r="J82" t="s">
-        <v>443</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="B83" t="s">
-        <v>444</v>
+        <v>364</v>
       </c>
       <c r="C83" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D83" t="s">
-        <v>445</v>
+        <v>365</v>
       </c>
       <c r="E83" t="s">
         <v>14</v>
@@ -5200,30 +4831,30 @@
         <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>446</v>
+        <v>366</v>
       </c>
       <c r="H83" t="s">
         <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>447</v>
+        <v>367</v>
       </c>
       <c r="J83" t="s">
-        <v>448</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>438</v>
+        <v>359</v>
       </c>
       <c r="B84" t="s">
-        <v>449</v>
+        <v>368</v>
       </c>
       <c r="C84" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D84" t="s">
-        <v>450</v>
+        <v>369</v>
       </c>
       <c r="E84" t="s">
         <v>14</v>
@@ -5232,30 +4863,30 @@
         <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>451</v>
+        <v>370</v>
       </c>
       <c r="H84" t="s">
         <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>452</v>
+        <v>371</v>
       </c>
       <c r="J84" t="s">
-        <v>453</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="B85" t="s">
-        <v>455</v>
+        <v>373</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D85" t="s">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="E85" t="s">
         <v>14</v>
@@ -5264,30 +4895,30 @@
         <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>457</v>
+        <v>375</v>
       </c>
       <c r="H85" t="s">
         <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>458</v>
+        <v>376</v>
       </c>
       <c r="J85" t="s">
-        <v>459</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="B86" t="s">
-        <v>460</v>
+        <v>377</v>
       </c>
       <c r="C86" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D86" t="s">
-        <v>461</v>
+        <v>378</v>
       </c>
       <c r="E86" t="s">
         <v>14</v>
@@ -5296,30 +4927,30 @@
         <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>462</v>
+        <v>379</v>
       </c>
       <c r="H86" t="s">
         <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>463</v>
+        <v>380</v>
       </c>
       <c r="J86" t="s">
-        <v>464</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>454</v>
+        <v>372</v>
       </c>
       <c r="B87" t="s">
-        <v>465</v>
+        <v>381</v>
       </c>
       <c r="C87" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D87" t="s">
-        <v>466</v>
+        <v>382</v>
       </c>
       <c r="E87" t="s">
         <v>14</v>
@@ -5328,30 +4959,30 @@
         <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>467</v>
+        <v>383</v>
       </c>
       <c r="H87" t="s">
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>468</v>
+        <v>384</v>
       </c>
       <c r="J87" t="s">
-        <v>469</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="B88" t="s">
-        <v>471</v>
+        <v>386</v>
       </c>
       <c r="C88" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D88" t="s">
-        <v>472</v>
+        <v>387</v>
       </c>
       <c r="E88" t="s">
         <v>14</v>
@@ -5360,30 +4991,30 @@
         <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>473</v>
+        <v>388</v>
       </c>
       <c r="H88" t="s">
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>474</v>
+        <v>389</v>
       </c>
       <c r="J88" t="s">
-        <v>475</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>470</v>
+        <v>385</v>
       </c>
       <c r="B89" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
       <c r="C89" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D89" t="s">
-        <v>477</v>
+        <v>391</v>
       </c>
       <c r="E89" t="s">
         <v>14</v>
@@ -5392,30 +5023,30 @@
         <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>478</v>
+        <v>392</v>
       </c>
       <c r="H89" t="s">
         <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>479</v>
+        <v>393</v>
       </c>
       <c r="J89" t="s">
-        <v>480</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>481</v>
+        <v>394</v>
       </c>
       <c r="B90" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="C90" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D90" t="s">
-        <v>483</v>
+        <v>396</v>
       </c>
       <c r="E90" t="s">
         <v>14</v>
@@ -5424,30 +5055,30 @@
         <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>484</v>
+        <v>397</v>
       </c>
       <c r="H90" t="s">
         <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>485</v>
+        <v>398</v>
       </c>
       <c r="J90" t="s">
-        <v>486</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>487</v>
+        <v>399</v>
       </c>
       <c r="B91" t="s">
-        <v>488</v>
+        <v>400</v>
       </c>
       <c r="C91" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D91" t="s">
-        <v>489</v>
+        <v>401</v>
       </c>
       <c r="E91" t="s">
         <v>14</v>
@@ -5456,30 +5087,30 @@
         <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>490</v>
+        <v>402</v>
       </c>
       <c r="H91" t="s">
         <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>491</v>
+        <v>403</v>
       </c>
       <c r="J91" t="s">
-        <v>492</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>487</v>
+        <v>399</v>
       </c>
       <c r="B92" t="s">
-        <v>493</v>
+        <v>404</v>
       </c>
       <c r="C92" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D92" t="s">
-        <v>494</v>
+        <v>405</v>
       </c>
       <c r="E92" t="s">
         <v>14</v>
@@ -5488,30 +5119,30 @@
         <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>495</v>
+        <v>406</v>
       </c>
       <c r="H92" t="s">
         <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="J92" t="s">
-        <v>497</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="B93" t="s">
-        <v>499</v>
+        <v>409</v>
       </c>
       <c r="C93" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D93" t="s">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="E93" t="s">
         <v>14</v>
@@ -5520,30 +5151,30 @@
         <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>501</v>
+        <v>411</v>
       </c>
       <c r="H93" t="s">
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>502</v>
+        <v>412</v>
       </c>
       <c r="J93" t="s">
-        <v>503</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>498</v>
+        <v>408</v>
       </c>
       <c r="B94" t="s">
-        <v>504</v>
+        <v>413</v>
       </c>
       <c r="C94" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>505</v>
+        <v>414</v>
       </c>
       <c r="E94" t="s">
         <v>14</v>
@@ -5552,30 +5183,30 @@
         <v>14</v>
       </c>
       <c r="G94" t="s">
-        <v>506</v>
+        <v>415</v>
       </c>
       <c r="H94" t="s">
         <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>507</v>
+        <v>416</v>
       </c>
       <c r="J94" t="s">
-        <v>508</v>
+        <v>17</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="B95" t="s">
-        <v>510</v>
+        <v>418</v>
       </c>
       <c r="C95" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="E95" t="s">
         <v>14</v>
@@ -5584,30 +5215,30 @@
         <v>14</v>
       </c>
       <c r="G95" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="H95" t="s">
         <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
       <c r="J95" t="s">
-        <v>514</v>
+        <v>17</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="B96" t="s">
-        <v>515</v>
+        <v>422</v>
       </c>
       <c r="C96" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D96" t="s">
-        <v>516</v>
+        <v>423</v>
       </c>
       <c r="E96" t="s">
         <v>14</v>
@@ -5616,30 +5247,30 @@
         <v>14</v>
       </c>
       <c r="G96" t="s">
-        <v>517</v>
+        <v>424</v>
       </c>
       <c r="H96" t="s">
         <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>518</v>
+        <v>425</v>
       </c>
       <c r="J96" t="s">
-        <v>519</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="B97" t="s">
-        <v>520</v>
+        <v>426</v>
       </c>
       <c r="C97" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D97" t="s">
-        <v>521</v>
+        <v>427</v>
       </c>
       <c r="E97" t="s">
         <v>14</v>
@@ -5648,30 +5279,30 @@
         <v>14</v>
       </c>
       <c r="G97" t="s">
-        <v>522</v>
+        <v>428</v>
       </c>
       <c r="H97" t="s">
         <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>523</v>
+        <v>429</v>
       </c>
       <c r="J97" t="s">
-        <v>524</v>
+        <v>17</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>525</v>
+        <v>430</v>
       </c>
       <c r="B98" t="s">
-        <v>526</v>
+        <v>431</v>
       </c>
       <c r="C98" t="s">
-        <v>255</v>
+        <v>211</v>
       </c>
       <c r="D98" t="s">
-        <v>527</v>
+        <v>432</v>
       </c>
       <c r="E98" t="s">
         <v>14</v>
@@ -5680,30 +5311,30 @@
         <v>14</v>
       </c>
       <c r="G98" t="s">
-        <v>528</v>
+        <v>433</v>
       </c>
       <c r="H98" t="s">
         <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>529</v>
+        <v>434</v>
       </c>
       <c r="J98" t="s">
-        <v>530</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>531</v>
+        <v>435</v>
       </c>
       <c r="B99" t="s">
-        <v>532</v>
+        <v>436</v>
       </c>
       <c r="C99" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D99" t="s">
-        <v>534</v>
+        <v>438</v>
       </c>
       <c r="E99" t="s">
         <v>14</v>
@@ -5712,30 +5343,30 @@
         <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>535</v>
+        <v>439</v>
       </c>
       <c r="H99" t="s">
         <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>536</v>
+        <v>440</v>
       </c>
       <c r="J99" t="s">
-        <v>537</v>
+        <v>17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="B100" t="s">
-        <v>539</v>
+        <v>442</v>
       </c>
       <c r="C100" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D100" t="s">
-        <v>540</v>
+        <v>443</v>
       </c>
       <c r="E100" t="s">
         <v>14</v>
@@ -5744,30 +5375,30 @@
         <v>14</v>
       </c>
       <c r="G100" t="s">
-        <v>541</v>
+        <v>444</v>
       </c>
       <c r="H100" t="s">
         <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>542</v>
+        <v>445</v>
       </c>
       <c r="J100" t="s">
-        <v>543</v>
+        <v>17</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="B101" t="s">
-        <v>544</v>
+        <v>446</v>
       </c>
       <c r="C101" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D101" t="s">
-        <v>545</v>
+        <v>447</v>
       </c>
       <c r="E101" t="s">
         <v>14</v>
@@ -5776,30 +5407,30 @@
         <v>14</v>
       </c>
       <c r="G101" t="s">
-        <v>546</v>
+        <v>448</v>
       </c>
       <c r="H101" t="s">
         <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>547</v>
+        <v>449</v>
       </c>
       <c r="J101" t="s">
-        <v>548</v>
+        <v>17</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="B102" t="s">
-        <v>549</v>
+        <v>450</v>
       </c>
       <c r="C102" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D102" t="s">
-        <v>550</v>
+        <v>451</v>
       </c>
       <c r="E102" t="s">
         <v>14</v>
@@ -5808,30 +5439,30 @@
         <v>14</v>
       </c>
       <c r="G102" t="s">
-        <v>551</v>
+        <v>452</v>
       </c>
       <c r="H102" t="s">
         <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>552</v>
+        <v>453</v>
       </c>
       <c r="J102" t="s">
-        <v>553</v>
+        <v>17</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="B103" t="s">
-        <v>554</v>
+        <v>454</v>
       </c>
       <c r="C103" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D103" t="s">
-        <v>555</v>
+        <v>455</v>
       </c>
       <c r="E103" t="s">
         <v>14</v>
@@ -5840,30 +5471,30 @@
         <v>14</v>
       </c>
       <c r="G103" t="s">
-        <v>556</v>
+        <v>456</v>
       </c>
       <c r="H103" t="s">
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>557</v>
+        <v>457</v>
       </c>
       <c r="J103" t="s">
-        <v>558</v>
+        <v>17</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>538</v>
+        <v>441</v>
       </c>
       <c r="B104" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
       <c r="C104" t="s">
-        <v>559</v>
+        <v>458</v>
       </c>
       <c r="D104" t="s">
-        <v>560</v>
+        <v>459</v>
       </c>
       <c r="E104" t="s">
         <v>14</v>
@@ -5872,30 +5503,30 @@
         <v>14</v>
       </c>
       <c r="G104" t="s">
-        <v>561</v>
+        <v>460</v>
       </c>
       <c r="H104" t="s">
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>562</v>
+        <v>461</v>
       </c>
       <c r="J104" t="s">
-        <v>563</v>
+        <v>17</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>564</v>
+        <v>462</v>
       </c>
       <c r="B105" t="s">
-        <v>476</v>
+        <v>390</v>
       </c>
       <c r="C105" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D105" t="s">
-        <v>565</v>
+        <v>463</v>
       </c>
       <c r="E105" t="s">
         <v>14</v>
@@ -5904,30 +5535,30 @@
         <v>14</v>
       </c>
       <c r="G105" t="s">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="H105" t="s">
         <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>567</v>
+        <v>465</v>
       </c>
       <c r="J105" t="s">
-        <v>568</v>
+        <v>17</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>564</v>
+        <v>462</v>
       </c>
       <c r="B106" t="s">
-        <v>569</v>
+        <v>466</v>
       </c>
       <c r="C106" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D106" t="s">
-        <v>570</v>
+        <v>467</v>
       </c>
       <c r="E106" t="s">
         <v>14</v>
@@ -5936,30 +5567,30 @@
         <v>14</v>
       </c>
       <c r="G106" t="s">
-        <v>571</v>
+        <v>468</v>
       </c>
       <c r="H106" t="s">
         <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>572</v>
+        <v>469</v>
       </c>
       <c r="J106" t="s">
-        <v>573</v>
+        <v>17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="B107" t="s">
-        <v>433</v>
+        <v>355</v>
       </c>
       <c r="C107" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D107" t="s">
-        <v>575</v>
+        <v>471</v>
       </c>
       <c r="E107" t="s">
         <v>14</v>
@@ -5968,30 +5599,30 @@
         <v>14</v>
       </c>
       <c r="G107" t="s">
-        <v>576</v>
+        <v>472</v>
       </c>
       <c r="H107" t="s">
         <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>577</v>
+        <v>473</v>
       </c>
       <c r="J107" t="s">
-        <v>578</v>
+        <v>17</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="B108" t="s">
-        <v>579</v>
+        <v>474</v>
       </c>
       <c r="C108" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D108" t="s">
-        <v>580</v>
+        <v>475</v>
       </c>
       <c r="E108" t="s">
         <v>14</v>
@@ -6000,30 +5631,30 @@
         <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>581</v>
+        <v>476</v>
       </c>
       <c r="H108" t="s">
         <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>582</v>
+        <v>477</v>
       </c>
       <c r="J108" t="s">
-        <v>583</v>
+        <v>17</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="B109" t="s">
-        <v>584</v>
+        <v>478</v>
       </c>
       <c r="C109" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D109" t="s">
-        <v>585</v>
+        <v>479</v>
       </c>
       <c r="E109" t="s">
         <v>14</v>
@@ -6032,30 +5663,30 @@
         <v>14</v>
       </c>
       <c r="G109" t="s">
-        <v>586</v>
+        <v>480</v>
       </c>
       <c r="H109" t="s">
         <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>587</v>
+        <v>481</v>
       </c>
       <c r="J109" t="s">
-        <v>588</v>
+        <v>17</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="B110" t="s">
-        <v>589</v>
+        <v>482</v>
       </c>
       <c r="C110" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D110" t="s">
-        <v>590</v>
+        <v>483</v>
       </c>
       <c r="E110" t="s">
         <v>14</v>
@@ -6064,30 +5695,30 @@
         <v>14</v>
       </c>
       <c r="G110" t="s">
-        <v>591</v>
+        <v>484</v>
       </c>
       <c r="H110" t="s">
         <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>592</v>
+        <v>485</v>
       </c>
       <c r="J110" t="s">
-        <v>593</v>
+        <v>17</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>574</v>
+        <v>470</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="C111" t="s">
-        <v>559</v>
+        <v>458</v>
       </c>
       <c r="D111" t="s">
-        <v>594</v>
+        <v>486</v>
       </c>
       <c r="E111" t="s">
         <v>14</v>
@@ -6096,30 +5727,30 @@
         <v>14</v>
       </c>
       <c r="G111" t="s">
-        <v>595</v>
+        <v>487</v>
       </c>
       <c r="H111" t="s">
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>596</v>
+        <v>488</v>
       </c>
       <c r="J111" t="s">
-        <v>597</v>
+        <v>17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>598</v>
+        <v>489</v>
       </c>
       <c r="B112" t="s">
-        <v>599</v>
+        <v>490</v>
       </c>
       <c r="C112" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D112" t="s">
-        <v>600</v>
+        <v>491</v>
       </c>
       <c r="E112" t="s">
         <v>14</v>
@@ -6128,30 +5759,30 @@
         <v>14</v>
       </c>
       <c r="G112" t="s">
-        <v>601</v>
+        <v>492</v>
       </c>
       <c r="H112" t="s">
         <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>602</v>
+        <v>493</v>
       </c>
       <c r="J112" t="s">
-        <v>603</v>
+        <v>17</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>598</v>
+        <v>489</v>
       </c>
       <c r="B113" t="s">
-        <v>604</v>
+        <v>494</v>
       </c>
       <c r="C113" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D113" t="s">
-        <v>605</v>
+        <v>495</v>
       </c>
       <c r="E113" t="s">
         <v>14</v>
@@ -6160,30 +5791,30 @@
         <v>14</v>
       </c>
       <c r="G113" t="s">
-        <v>606</v>
+        <v>496</v>
       </c>
       <c r="H113" t="s">
         <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>607</v>
+        <v>497</v>
       </c>
       <c r="J113" t="s">
-        <v>608</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>598</v>
+        <v>489</v>
       </c>
       <c r="B114" t="s">
-        <v>510</v>
+        <v>418</v>
       </c>
       <c r="C114" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D114" t="s">
-        <v>609</v>
+        <v>498</v>
       </c>
       <c r="E114" t="s">
         <v>14</v>
@@ -6192,30 +5823,30 @@
         <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>610</v>
+        <v>499</v>
       </c>
       <c r="H114" t="s">
         <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>611</v>
+        <v>500</v>
       </c>
       <c r="J114" t="s">
-        <v>612</v>
+        <v>17</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>598</v>
+        <v>489</v>
       </c>
       <c r="B115" t="s">
-        <v>482</v>
+        <v>395</v>
       </c>
       <c r="C115" t="s">
-        <v>559</v>
+        <v>458</v>
       </c>
       <c r="D115" t="s">
-        <v>613</v>
+        <v>501</v>
       </c>
       <c r="E115" t="s">
         <v>14</v>
@@ -6224,30 +5855,30 @@
         <v>14</v>
       </c>
       <c r="G115" t="s">
-        <v>614</v>
+        <v>502</v>
       </c>
       <c r="H115" t="s">
         <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>615</v>
+        <v>503</v>
       </c>
       <c r="J115" t="s">
-        <v>616</v>
+        <v>17</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>617</v>
+        <v>504</v>
       </c>
       <c r="B116" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="C116" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D116" t="s">
-        <v>618</v>
+        <v>505</v>
       </c>
       <c r="E116" t="s">
         <v>14</v>
@@ -6256,30 +5887,30 @@
         <v>14</v>
       </c>
       <c r="G116" t="s">
-        <v>619</v>
+        <v>506</v>
       </c>
       <c r="H116" t="s">
         <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>620</v>
+        <v>507</v>
       </c>
       <c r="J116" t="s">
-        <v>621</v>
+        <v>17</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>617</v>
+        <v>504</v>
       </c>
       <c r="B117" t="s">
-        <v>622</v>
+        <v>508</v>
       </c>
       <c r="C117" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D117" t="s">
-        <v>623</v>
+        <v>509</v>
       </c>
       <c r="E117" t="s">
         <v>14</v>
@@ -6288,30 +5919,30 @@
         <v>14</v>
       </c>
       <c r="G117" t="s">
-        <v>624</v>
+        <v>510</v>
       </c>
       <c r="H117" t="s">
         <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>625</v>
+        <v>511</v>
       </c>
       <c r="J117" t="s">
-        <v>626</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>617</v>
+        <v>504</v>
       </c>
       <c r="B118" t="s">
-        <v>627</v>
+        <v>512</v>
       </c>
       <c r="C118" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D118" t="s">
-        <v>628</v>
+        <v>513</v>
       </c>
       <c r="E118" t="s">
         <v>14</v>
@@ -6320,30 +5951,30 @@
         <v>14</v>
       </c>
       <c r="G118" t="s">
-        <v>629</v>
+        <v>514</v>
       </c>
       <c r="H118" t="s">
         <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>630</v>
+        <v>515</v>
       </c>
       <c r="J118" t="s">
-        <v>631</v>
+        <v>17</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>617</v>
+        <v>504</v>
       </c>
       <c r="B119" t="s">
-        <v>632</v>
+        <v>516</v>
       </c>
       <c r="C119" t="s">
-        <v>559</v>
+        <v>458</v>
       </c>
       <c r="D119" t="s">
-        <v>633</v>
+        <v>517</v>
       </c>
       <c r="E119" t="s">
         <v>14</v>
@@ -6352,30 +5983,30 @@
         <v>14</v>
       </c>
       <c r="G119" t="s">
-        <v>634</v>
+        <v>518</v>
       </c>
       <c r="H119" t="s">
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>635</v>
+        <v>519</v>
       </c>
       <c r="J119" t="s">
-        <v>636</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>617</v>
+        <v>504</v>
       </c>
       <c r="B120" t="s">
-        <v>637</v>
+        <v>520</v>
       </c>
       <c r="C120" t="s">
-        <v>559</v>
+        <v>458</v>
       </c>
       <c r="D120" t="s">
-        <v>638</v>
+        <v>521</v>
       </c>
       <c r="E120" t="s">
         <v>14</v>
@@ -6384,30 +6015,30 @@
         <v>14</v>
       </c>
       <c r="G120" t="s">
-        <v>639</v>
+        <v>522</v>
       </c>
       <c r="H120" t="s">
         <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>640</v>
+        <v>523</v>
       </c>
       <c r="J120" t="s">
-        <v>641</v>
+        <v>17</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>642</v>
+        <v>524</v>
       </c>
       <c r="B121" t="s">
-        <v>643</v>
+        <v>525</v>
       </c>
       <c r="C121" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D121" t="s">
-        <v>644</v>
+        <v>526</v>
       </c>
       <c r="E121" t="s">
         <v>14</v>
@@ -6416,30 +6047,30 @@
         <v>14</v>
       </c>
       <c r="G121" t="s">
-        <v>645</v>
+        <v>527</v>
       </c>
       <c r="H121" t="s">
         <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>646</v>
+        <v>528</v>
       </c>
       <c r="J121" t="s">
-        <v>647</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>642</v>
+        <v>524</v>
       </c>
       <c r="B122" t="s">
-        <v>648</v>
+        <v>529</v>
       </c>
       <c r="C122" t="s">
-        <v>533</v>
+        <v>437</v>
       </c>
       <c r="D122" t="s">
-        <v>649</v>
+        <v>530</v>
       </c>
       <c r="E122" t="s">
         <v>14</v>
@@ -6448,30 +6079,30 @@
         <v>14</v>
       </c>
       <c r="G122" t="s">
-        <v>650</v>
+        <v>531</v>
       </c>
       <c r="H122" t="s">
         <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>651</v>
+        <v>532</v>
       </c>
       <c r="J122" t="s">
-        <v>652</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>642</v>
+        <v>524</v>
       </c>
       <c r="B123" t="s">
-        <v>653</v>
+        <v>533</v>
       </c>
       <c r="C123" t="s">
-        <v>559</v>
+        <v>458</v>
       </c>
       <c r="D123" t="s">
-        <v>654</v>
+        <v>534</v>
       </c>
       <c r="E123" t="s">
         <v>14</v>
@@ -6480,30 +6111,30 @@
         <v>14</v>
       </c>
       <c r="G123" t="s">
-        <v>655</v>
+        <v>535</v>
       </c>
       <c r="H123" t="s">
         <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>656</v>
+        <v>536</v>
       </c>
       <c r="J123" t="s">
-        <v>657</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>642</v>
+        <v>524</v>
       </c>
       <c r="B124" t="s">
-        <v>653</v>
+        <v>533</v>
       </c>
       <c r="C124" t="s">
-        <v>653</v>
+        <v>533</v>
       </c>
       <c r="D124" t="s">
-        <v>658</v>
+        <v>537</v>
       </c>
       <c r="E124" t="s">
         <v>14</v>
@@ -6512,16 +6143,16 @@
         <v>14</v>
       </c>
       <c r="G124" t="s">
-        <v>659</v>
+        <v>538</v>
       </c>
       <c r="H124" t="s">
         <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>660</v>
+        <v>539</v>
       </c>
       <c r="J124" t="s">
-        <v>661</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
